--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3576.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3576.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.096086940570989</v>
+        <v>4.762195110321045</v>
       </c>
       <c r="B1">
-        <v>1.664007828687356</v>
+        <v>2.464328527450562</v>
       </c>
       <c r="C1">
-        <v>3.704192593925013</v>
+        <v>1.74525785446167</v>
       </c>
       <c r="D1">
-        <v>4.411293974835428</v>
+        <v>1.582785844802856</v>
       </c>
       <c r="E1">
-        <v>1.260780137847186</v>
+        <v>1.607695579528809</v>
       </c>
     </row>
   </sheetData>
